--- a/Data Files/Input Validation/16. contractpartyid/Auto_ContractPartyID_C6.xlsx
+++ b/Data Files/Input Validation/16. contractpartyid/Auto_ContractPartyID_C6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB289F9F-646F-44EA-92EB-F5133F994454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCE69F9-57F5-453E-9BA0-6ADF936034DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="1536" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
   <si>
     <t>contractPartyId</t>
   </si>
@@ -169,9 +169,6 @@
   </si>
   <si>
     <t>2023-09-01</t>
-  </si>
-  <si>
-    <t>2023-08-22</t>
   </si>
   <si>
     <t>2023-12-31</t>
@@ -608,10 +605,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AX2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -621,49 +618,48 @@
     <col min="3" max="3" width="8.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11" style="1" customWidth="1"/>
-    <col min="12" max="13" width="10.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.77734375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20.6640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.44140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="20.109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="22" style="1" customWidth="1"/>
-    <col min="22" max="22" width="12.109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="7.44140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="6.88671875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="11.44140625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="13.88671875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5546875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="8.109375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="12.33203125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="10.6640625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="13.44140625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="14.109375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="11.6640625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="8.6640625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="8.77734375" style="1" customWidth="1"/>
-    <col min="36" max="37" width="9" style="1" customWidth="1"/>
-    <col min="38" max="38" width="10" style="1" customWidth="1"/>
-    <col min="39" max="39" width="12.77734375" style="1" customWidth="1"/>
-    <col min="40" max="40" width="14.44140625" style="1" customWidth="1"/>
-    <col min="41" max="41" width="11.6640625" style="1" customWidth="1"/>
-    <col min="42" max="42" width="17.21875" style="1" customWidth="1"/>
-    <col min="43" max="43" width="18.44140625" style="1" customWidth="1"/>
-    <col min="44" max="44" width="10.21875" style="1" customWidth="1"/>
-    <col min="45" max="45" width="8.77734375" style="1" customWidth="1"/>
-    <col min="46" max="50" width="2.6640625" style="1"/>
-    <col min="52" max="16384" width="2.6640625" style="1"/>
+    <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.44140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="22" style="1" customWidth="1"/>
+    <col min="21" max="21" width="12.109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="6.88671875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="11.44140625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="13.88671875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="4.5546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="8.109375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="12.33203125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="10.6640625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="13.44140625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="14.109375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="11.6640625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="8.6640625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="8.77734375" style="1" customWidth="1"/>
+    <col min="35" max="36" width="9" style="1" customWidth="1"/>
+    <col min="37" max="37" width="10" style="1" customWidth="1"/>
+    <col min="38" max="38" width="12.77734375" style="1" customWidth="1"/>
+    <col min="39" max="39" width="14.44140625" style="1" customWidth="1"/>
+    <col min="40" max="40" width="11.6640625" style="1" customWidth="1"/>
+    <col min="41" max="41" width="17.21875" style="1" customWidth="1"/>
+    <col min="42" max="42" width="18.44140625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="10.21875" style="1" customWidth="1"/>
+    <col min="44" max="44" width="8.77734375" style="1" customWidth="1"/>
+    <col min="45" max="49" width="2.6640625" style="1"/>
+    <col min="51" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -680,132 +676,129 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="AS1" s="2"/>
       <c r="AT1" s="2"/>
       <c r="AU1" s="2"/>
       <c r="AV1" s="2"/>
       <c r="AW1" s="2"/>
-      <c r="AX1" s="2"/>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>44</v>
@@ -822,24 +815,24 @@
       <c r="F2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="M2" s="2" t="s">
         <v>51</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>53</v>
@@ -851,13 +844,13 @@
         <v>55</v>
       </c>
       <c r="S2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>57</v>
@@ -868,14 +861,14 @@
       <c r="X2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Y2" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
+      <c r="AD2" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="AE2" s="2" t="s">
         <v>61</v>
       </c>
@@ -889,38 +882,35 @@
         <v>64</v>
       </c>
       <c r="AI2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AJ2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AN2" s="2"/>
-      <c r="AO2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AQ2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AR2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="AS2" s="2"/>
       <c r="AT2" s="2"/>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2"/>
       <c r="AW2" s="2"/>
-      <c r="AX2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Data Files/Input Validation/16. contractpartyid/Auto_ContractPartyID_C6.xlsx
+++ b/Data Files/Input Validation/16. contractpartyid/Auto_ContractPartyID_C6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCE69F9-57F5-453E-9BA0-6ADF936034DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869821E6-72BA-43B5-91B7-C1872D9F3578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>contractPartyId</t>
   </si>
@@ -45,9 +45,6 @@
     <t>expireDate</t>
   </si>
   <si>
-    <t>receiveDate</t>
-  </si>
-  <si>
     <t>sendFormType</t>
   </si>
   <si>
@@ -232,6 +229,9 @@
   </si>
   <si>
     <t>AS9</t>
+  </si>
+  <si>
+    <t>effectiveDate</t>
   </si>
 </sst>
 </file>
@@ -608,7 +608,7 @@
   <dimension ref="A1:AX2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,118 +679,118 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="AS1" s="2"/>
       <c r="AT1" s="2"/>
@@ -801,65 +801,67 @@
     <row r="2" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
@@ -867,44 +869,44 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AI2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AL2" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="AL2" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="AM2" s="2"/>
       <c r="AN2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AP2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR2" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="AS2" s="2"/>
       <c r="AT2" s="2"/>

--- a/Data Files/Input Validation/16. contractpartyid/Auto_ContractPartyID_C6.xlsx
+++ b/Data Files/Input Validation/16. contractpartyid/Auto_ContractPartyID_C6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869821E6-72BA-43B5-91B7-C1872D9F3578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5FEFC0-EE1A-4448-9753-9F830F9EB77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>

--- a/Data Files/Input Validation/16. contractpartyid/Auto_ContractPartyID_C6.xlsx
+++ b/Data Files/Input Validation/16. contractpartyid/Auto_ContractPartyID_C6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5FEFC0-EE1A-4448-9753-9F830F9EB77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4842624-5A1E-4DB7-A15B-1946C368FE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
   <si>
     <t>contractPartyId</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>effectiveDate</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -608,7 +611,7 @@
   <dimension ref="A1:AX2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="AN2" sqref="AN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -894,7 +897,7 @@
       </c>
       <c r="AM2" s="2"/>
       <c r="AN2" s="3" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="AO2" s="2" t="s">
         <v>50</v>

--- a/Data Files/Input Validation/16. contractpartyid/Auto_ContractPartyID_C6.xlsx
+++ b/Data Files/Input Validation/16. contractpartyid/Auto_ContractPartyID_C6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4842624-5A1E-4DB7-A15B-1946C368FE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F625D2B-850F-4705-A3A0-4DF472A2AFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>

--- a/Data Files/Input Validation/16. contractpartyid/Auto_ContractPartyID_C6.xlsx
+++ b/Data Files/Input Validation/16. contractpartyid/Auto_ContractPartyID_C6.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Input Validation\16. contractpartyid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F625D2B-850F-4705-A3A0-4DF472A2AFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84680D5E-3D27-4DA2-A8DC-8F219E898079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2010" yWindow="1995" windowWidth="11925" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -45,6 +45,9 @@
     <t>expireDate</t>
   </si>
   <si>
+    <t>effectiveDate</t>
+  </si>
+  <si>
     <t>sendFormType</t>
   </si>
   <si>
@@ -165,7 +168,7 @@
     <t>rfg2-1p930-4sa</t>
   </si>
   <si>
-    <t>2023-09-01</t>
+    <t>2023-11-16</t>
   </si>
   <si>
     <t>2023-12-31</t>
@@ -225,16 +228,13 @@
     <t>[|บริษัท|ทดสอบ|อัตโนมัติ|0|O]</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>U0105556078229000</t>
   </si>
   <si>
     <t>AS9</t>
-  </si>
-  <si>
-    <t>effectiveDate</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -244,21 +244,22 @@
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -282,20 +283,20 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{5C5E41EF-9FB7-4F7B-81E2-83760853ADB9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -327,7 +328,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -339,7 +340,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -386,23 +387,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -438,23 +422,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -607,318 +574,261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AX2"/>
+  <dimension ref="A1:AR2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AN2" sqref="AN2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:AR2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="20.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20.44140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="22" style="1" customWidth="1"/>
-    <col min="21" max="21" width="12.109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="6.88671875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="11.44140625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="13.88671875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="4.5546875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="8.109375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="12.33203125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="10.6640625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="13.44140625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="14.109375" style="1" customWidth="1"/>
-    <col min="32" max="32" width="11.6640625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="8.6640625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="8.77734375" style="1" customWidth="1"/>
-    <col min="35" max="36" width="9" style="1" customWidth="1"/>
-    <col min="37" max="37" width="10" style="1" customWidth="1"/>
-    <col min="38" max="38" width="12.77734375" style="1" customWidth="1"/>
-    <col min="39" max="39" width="14.44140625" style="1" customWidth="1"/>
-    <col min="40" max="40" width="11.6640625" style="1" customWidth="1"/>
-    <col min="41" max="41" width="17.21875" style="1" customWidth="1"/>
-    <col min="42" max="42" width="18.44140625" style="1" customWidth="1"/>
-    <col min="43" max="43" width="10.21875" style="1" customWidth="1"/>
-    <col min="44" max="44" width="8.77734375" style="1" customWidth="1"/>
-    <col min="45" max="49" width="2.6640625" style="1"/>
-    <col min="51" max="16384" width="2.6640625" style="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
-    </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="3" t="s">
+      <c r="AR2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AO2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS2" s="2"/>
-      <c r="AT2" s="2"/>
-      <c r="AU2" s="2"/>
-      <c r="AV2" s="2"/>
-      <c r="AW2" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data Files/Input Validation/16. contractpartyid/Auto_ContractPartyID_C6.xlsx
+++ b/Data Files/Input Validation/16. contractpartyid/Auto_ContractPartyID_C6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Input Validation\16. contractpartyid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84680D5E-3D27-4DA2-A8DC-8F219E898079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B298A21-00E6-420E-B963-02AC17EEF316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="1995" windowWidth="11925" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6210" yWindow="2415" windowWidth="9690" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -168,9 +168,6 @@
     <t>rfg2-1p930-4sa</t>
   </si>
   <si>
-    <t>2023-11-16</t>
-  </si>
-  <si>
     <t>2023-12-31</t>
   </si>
   <si>
@@ -235,6 +232,9 @@
   </si>
   <si>
     <t>AS9</t>
+  </si>
+  <si>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>
@@ -577,7 +577,7 @@
   <dimension ref="A1:AR2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AR2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -728,58 +728,58 @@
         <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>44</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>44</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
@@ -787,45 +787,45 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="AK2" s="3"/>
       <c r="AL2" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AM2" s="1"/>
       <c r="AN2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AO2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR2" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/Input Validation/16. contractpartyid/Auto_ContractPartyID_C6.xlsx
+++ b/Data Files/Input Validation/16. contractpartyid/Auto_ContractPartyID_C6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B298A21-00E6-420E-B963-02AC17EEF316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0AD037-939E-4A26-8E74-DC4D8179D6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="2415" windowWidth="9690" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -234,7 +234,7 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/16. contractpartyid/Auto_ContractPartyID_C6.xlsx
+++ b/Data Files/Input Validation/16. contractpartyid/Auto_ContractPartyID_C6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D9177A-7DE4-4730-8456-80FEB4D9DD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2C9E05-779A-4E45-9BAC-8F4778AB55FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
   <si>
     <t>contractPartyId</t>
   </si>
@@ -219,9 +219,6 @@
     <t>หลักประกัน</t>
   </si>
   <si>
-    <t>[|บริษัท|ทดสอบ|อัตโนมัติ|0|O]</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -231,10 +228,10 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2024-02-01</t>
-  </si>
-  <si>
-    <t>2024-02-16</t>
+    <t>[|บริษัท|ทดสอบ|อัตโนมัติ||]</t>
+  </si>
+  <si>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -574,15 +571,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:AQ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,124 +596,121 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>43</v>
@@ -731,101 +725,98 @@
         <v>68</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="L2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="T2" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X2" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
+      <c r="AC2" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="AD2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="AI2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AJ2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM2" s="1"/>
-      <c r="AN2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/Input Validation/16. contractpartyid/Auto_ContractPartyID_C6.xlsx
+++ b/Data Files/Input Validation/16. contractpartyid/Auto_ContractPartyID_C6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2C9E05-779A-4E45-9BAC-8F4778AB55FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E25B08-1454-416B-94DD-33C3840076AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="12915" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -231,7 +231,7 @@
     <t>[|บริษัท|ทดสอบ|อัตโนมัติ||]</t>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>
@@ -571,6 +571,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AQ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/Data Files/Input Validation/16. contractpartyid/Auto_ContractPartyID_C6.xlsx
+++ b/Data Files/Input Validation/16. contractpartyid/Auto_ContractPartyID_C6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E25B08-1454-416B-94DD-33C3840076AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41188731-C9BE-4E44-B16F-389FFA9376ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="12915" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="7305" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -231,7 +231,7 @@
     <t>[|บริษัท|ทดสอบ|อัตโนมัติ||]</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
